--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value301.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value301.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.407501993454765</v>
+        <v>0.8555883169174194</v>
       </c>
       <c r="B1">
-        <v>1.440123663965814</v>
+        <v>1.39241898059845</v>
       </c>
       <c r="C1">
-        <v>1.568454032538325</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.269346967505261</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>2.25313721175293</v>
+        <v>1.531438708305359</v>
       </c>
     </row>
   </sheetData>
